--- a/change_job-output.xlsx
+++ b/change_job-output.xlsx
@@ -12748,7 +12748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC10"/>
+  <dimension ref="A1:BC6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13835,406 +13835,6 @@
       <c r="BA6" t="inlineStr"/>
       <c r="BB6" t="inlineStr"/>
       <c r="BC6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>123451</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>P-001</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>XYZ</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>ABC-001</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Consultant</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Full_Time</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="inlineStr"/>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
-      <c r="BA7" t="inlineStr"/>
-      <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>123452</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>P-001</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>XYZ</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>ABC-001</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Consultant</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Full_Time</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
-      <c r="AV8" t="inlineStr"/>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
-      <c r="BA8" t="inlineStr"/>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>123453</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>P-001</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>XYZ</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>ABC-001</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Consultant</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Full_Time</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="inlineStr"/>
-      <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
-      <c r="BA9" t="inlineStr"/>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>123454</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>P-001</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>XYZ</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>ABC-001</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Consultant</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>Full_Time</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="inlineStr"/>
-      <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
-      <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="7">
